--- a/cirRNA/cirRNAInfo/static/table/circRNA-miRNA.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/circRNA-miRNA.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB40C5A-4C44-4D39-A71D-CBC30E4BF80A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9527C-D906-4E00-974A-6A87E65BA7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="circRNA-miRNA" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$478</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$706</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'circRNA-miRNA'!$B$1:$B$478</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="594">
   <si>
     <t>hsa_circ_0001946</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1903,1256 +1901,6 @@
   </si>
   <si>
     <t>hsa-miR-93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circANRIL</t>
-  </si>
-  <si>
-    <t>circCTDP1</t>
-  </si>
-  <si>
-    <t>circMYLK</t>
-  </si>
-  <si>
-    <t>circPVT1</t>
-  </si>
-  <si>
-    <t>circRNA_000839</t>
-  </si>
-  <si>
-    <t>circRNA4046</t>
-  </si>
-  <si>
-    <t>circRNA4406</t>
-  </si>
-  <si>
-    <t>circRNA4882</t>
-  </si>
-  <si>
-    <t>circUBAP2</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000677</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001141</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001724</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002062</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002768</t>
-  </si>
-  <si>
-    <t>hsa_circ_0004519</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005075</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005085</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005105</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005239</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005402</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005986</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006323</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006528</t>
-  </si>
-  <si>
-    <t>hsa_circ_0013339</t>
-  </si>
-  <si>
-    <t>hsa_circ_0013958</t>
-  </si>
-  <si>
-    <t>hsa_circ_0015449</t>
-  </si>
-  <si>
-    <t>hsa_circ_0016347</t>
-  </si>
-  <si>
-    <t>hsa_circ_0018289</t>
-  </si>
-  <si>
-    <t>hsa_circ_0020397</t>
-  </si>
-  <si>
-    <t>hsa_circ_0022342</t>
-  </si>
-  <si>
-    <t>hsa_circ_0023404</t>
-  </si>
-  <si>
-    <t>hsa_circ_0032832</t>
-  </si>
-  <si>
-    <t>hsa_circ_0032970</t>
-  </si>
-  <si>
-    <t>hsa_circ_0046449</t>
-  </si>
-  <si>
-    <t>hsa_circ_0051172</t>
-  </si>
-  <si>
-    <t>hsa_circ_0054537</t>
-  </si>
-  <si>
-    <t>hsa_circ_0057576</t>
-  </si>
-  <si>
-    <t>hsa_circ_0068942</t>
-  </si>
-  <si>
-    <t>hsa_circ_0071410</t>
-  </si>
-  <si>
-    <t>hsa_circ_0072387</t>
-  </si>
-  <si>
-    <t>hsa_circ_0080189</t>
-  </si>
-  <si>
-    <t>hsa_circ_0082824</t>
-  </si>
-  <si>
-    <t>hsa_circ_0083357</t>
-  </si>
-  <si>
-    <t>hsa_circ_0089378</t>
-  </si>
-  <si>
-    <t>hsa_circ_0089974</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_086376</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102761</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103801</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104980</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_105055</t>
-  </si>
-  <si>
-    <t>BANP</t>
-  </si>
-  <si>
-    <t>chr18:107887-108499</t>
-  </si>
-  <si>
-    <t>chr19:5761476-5761630</t>
-  </si>
-  <si>
-    <t>Chr22: 28943661</t>
-  </si>
-  <si>
-    <t>chr4:103501692-103504114</t>
-  </si>
-  <si>
-    <t>Chr5: 158368701</t>
-  </si>
-  <si>
-    <t>Chr9: 74522734</t>
-  </si>
-  <si>
-    <t>circ-104916</t>
-  </si>
-  <si>
-    <t>circ7374</t>
-  </si>
-  <si>
-    <t>circ7780</t>
-  </si>
-  <si>
-    <t>circ-ABCB10</t>
-  </si>
-  <si>
-    <t>circ-Amotl1</t>
-  </si>
-  <si>
-    <t>hsa_circ_0004214</t>
-  </si>
-  <si>
-    <t>circARHGAP5</t>
-  </si>
-  <si>
-    <t>hsa_circ_0085154</t>
-  </si>
-  <si>
-    <t>hsa_circ_000826</t>
-  </si>
-  <si>
-    <t>circ-BANP</t>
-  </si>
-  <si>
-    <t>circBC048201</t>
-  </si>
-  <si>
-    <t>circBCL11B</t>
-  </si>
-  <si>
-    <t>circBRAF</t>
-  </si>
-  <si>
-    <t>circBRIP</t>
-  </si>
-  <si>
-    <t>circC3P1</t>
-  </si>
-  <si>
-    <t>circCCNB1</t>
-  </si>
-  <si>
-    <t>circCDK13</t>
-  </si>
-  <si>
-    <t>circDENND4C</t>
-  </si>
-  <si>
-    <t>hsa_circ_100721</t>
-  </si>
-  <si>
-    <t>circETFA</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007158</t>
-  </si>
-  <si>
-    <t>circFAT1</t>
-  </si>
-  <si>
-    <t>Circ-FBXW7</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003028</t>
-  </si>
-  <si>
-    <t>hsa_circ_005239</t>
-  </si>
-  <si>
-    <t>circHIAT1</t>
-  </si>
-  <si>
-    <t>circHIPK3</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007915</t>
-  </si>
-  <si>
-    <t>circ-KLDHC10</t>
-  </si>
-  <si>
-    <t>circLARP4</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006988</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103595</t>
-  </si>
-  <si>
-    <t>circMED13</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_0007874</t>
-  </si>
-  <si>
-    <t>circRNA-MYLK</t>
-  </si>
-  <si>
-    <t>hsa_circ_0092509</t>
-  </si>
-  <si>
-    <t>circOLA</t>
-  </si>
-  <si>
-    <t>hsa circ 0031288</t>
-  </si>
-  <si>
-    <t>hsa_circ_0067934</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005273</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001821</t>
-  </si>
-  <si>
-    <t>circRHOBTB3</t>
-  </si>
-  <si>
-    <t>hsa_circ_001598</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001336</t>
-  </si>
-  <si>
-    <t>circRNA_100269</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100290</t>
-  </si>
-  <si>
-    <t>circRNA_100782</t>
-  </si>
-  <si>
-    <t>circRNA_102231</t>
-  </si>
-  <si>
-    <t>circRNA-000284</t>
-  </si>
-  <si>
-    <t>circRNA0003906</t>
-  </si>
-  <si>
-    <t>circRNA-000911</t>
-  </si>
-  <si>
-    <t>circRNA-001175</t>
-  </si>
-  <si>
-    <t>circRNA-001283</t>
-  </si>
-  <si>
-    <t>hsa_circ_0047905</t>
-  </si>
-  <si>
-    <t>has-circRNA7690-15</t>
-  </si>
-  <si>
-    <t>hsa_circ_0138960</t>
-  </si>
-  <si>
-    <t>circRNA-100338</t>
-  </si>
-  <si>
-    <t>circRNA-100438</t>
-  </si>
-  <si>
-    <t>circRNA120</t>
-  </si>
-  <si>
-    <t>circRNA167</t>
-  </si>
-  <si>
-    <t>circRNA2918</t>
-  </si>
-  <si>
-    <t>circRNA3341</t>
-  </si>
-  <si>
-    <t>circRNA3594</t>
-  </si>
-  <si>
-    <t>circRNA3703</t>
-  </si>
-  <si>
-    <t>circRNA3706</t>
-  </si>
-  <si>
-    <t>circRNA3707</t>
-  </si>
-  <si>
-    <t>circRNA378</t>
-  </si>
-  <si>
-    <t>circRNA4628</t>
-  </si>
-  <si>
-    <t>circRNA5669</t>
-  </si>
-  <si>
-    <t>circRNA666</t>
-  </si>
-  <si>
-    <t>circRNA7534</t>
-  </si>
-  <si>
-    <t>circRNA7535</t>
-  </si>
-  <si>
-    <t>circRNA7536</t>
-  </si>
-  <si>
-    <t>circRNA7537</t>
-  </si>
-  <si>
-    <t>circRNA7673</t>
-  </si>
-  <si>
-    <t>circRNA7674</t>
-  </si>
-  <si>
-    <t>circRNA7675</t>
-  </si>
-  <si>
-    <t>circRNA7676</t>
-  </si>
-  <si>
-    <t>circRNA7679</t>
-  </si>
-  <si>
-    <t>circRNA8505</t>
-  </si>
-  <si>
-    <t>circRNA8506</t>
-  </si>
-  <si>
-    <t>circRNA8507</t>
-  </si>
-  <si>
-    <t>circRNA904</t>
-  </si>
-  <si>
-    <t>circRNA9227</t>
-  </si>
-  <si>
-    <t>circRNA9652</t>
-  </si>
-  <si>
-    <t>circRNA9656</t>
-  </si>
-  <si>
-    <t>circRNA9658</t>
-  </si>
-  <si>
-    <t>circRNA9671</t>
-  </si>
-  <si>
-    <t>circRNA9771</t>
-  </si>
-  <si>
-    <t>circRNA9777</t>
-  </si>
-  <si>
-    <t>circRTN4</t>
-  </si>
-  <si>
-    <t>circSMARC1A</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001445</t>
-  </si>
-  <si>
-    <t>circSMARCA5</t>
-  </si>
-  <si>
-    <t>hsa_circ_0082582</t>
-  </si>
-  <si>
-    <t>circVRK1</t>
-  </si>
-  <si>
-    <t>circZFR</t>
-  </si>
-  <si>
-    <t>hsa_circ_0072088</t>
-  </si>
-  <si>
-    <t>hsa_circ_10072088</t>
-  </si>
-  <si>
-    <t>cir-ITCH</t>
-  </si>
-  <si>
-    <t>circ-ITCH</t>
-  </si>
-  <si>
-    <t>cirZKSCAN1</t>
-  </si>
-  <si>
-    <t>has_circRNA7690-15</t>
-  </si>
-  <si>
-    <t>Hsa_circ_0+A1367000520</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000064</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000069</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000098</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000140</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000144</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000154</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000172</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000181</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000190</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000199</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000237</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000257</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000523</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000567</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000732</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000745</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000893</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000911</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000977</t>
-  </si>
-  <si>
-    <t>hsa_circ_0000981</t>
-  </si>
-  <si>
-    <t>Hsa_circ_0001017</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001187</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001212</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001283</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001451</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001546</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001561</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001564</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001566</t>
-  </si>
-  <si>
-    <t>Hsa_circ_0001649</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001666</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001667</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001721</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001785</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001895</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001897</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001947</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002019</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002024</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002089</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002113</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002138</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002343</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002495</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002577</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002874</t>
-  </si>
-  <si>
-    <t>hsa_circ_0002968</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003159</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003221</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003570</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003586</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003707</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003789</t>
-  </si>
-  <si>
-    <t>hsa_circ_0003838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa_circ_0004018 </t>
-  </si>
-  <si>
-    <t>hsa_circ_0004136</t>
-  </si>
-  <si>
-    <t>hsa_circ_0004680</t>
-  </si>
-  <si>
-    <t>hsa_circ_0004872</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005529</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005556</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005603</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005927</t>
-  </si>
-  <si>
-    <t>hsa_circ_0005949</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006022</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006127</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006174</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006220</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006282</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006411</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006470</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006633</t>
-  </si>
-  <si>
-    <t>hsa_circ_0006913</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007099</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007385</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007386</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007534</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007707</t>
-  </si>
-  <si>
-    <t>hsa_circ_0007928</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008078</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008345</t>
-  </si>
-  <si>
-    <t>hsa_circ_000839</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008394</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008494</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008509</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008719</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008832</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008844</t>
-  </si>
-  <si>
-    <t>hsa_circ_0008945</t>
-  </si>
-  <si>
-    <t>hsa_circ_0009910</t>
-  </si>
-  <si>
-    <t>hsa_circ_0011021</t>
-  </si>
-  <si>
-    <t>hsa_circ_0011107</t>
-  </si>
-  <si>
-    <t>hsa_circ_0011946</t>
-  </si>
-  <si>
-    <t>hsa_circ_0012673</t>
-  </si>
-  <si>
-    <t>hsa_circ_0013255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa_circRNA_100290 </t>
-  </si>
-  <si>
-    <t>hsa_circ_0014130</t>
-  </si>
-  <si>
-    <t>Hsa_circ_0014717</t>
-  </si>
-  <si>
-    <t>hsa_circ_001569</t>
-  </si>
-  <si>
-    <t>hsa_circ_0016760</t>
-  </si>
-  <si>
-    <t>hsa_circ_0017446</t>
-  </si>
-  <si>
-    <t>hsa_circ_0018293</t>
-  </si>
-  <si>
-    <t>hsa_circ_001988</t>
-  </si>
-  <si>
-    <t>Hsa_circ_0020397</t>
-  </si>
-  <si>
-    <t>hsa_circ_002059</t>
-  </si>
-  <si>
-    <t>hsa_circ_0022080</t>
-  </si>
-  <si>
-    <t>hsa_circ_0024169</t>
-  </si>
-  <si>
-    <t>hsa_circ_0031979</t>
-  </si>
-  <si>
-    <t>hsa_circ_0032821</t>
-  </si>
-  <si>
-    <t>hsa_circ_0034912</t>
-  </si>
-  <si>
-    <t>hsa_circ_0035381</t>
-  </si>
-  <si>
-    <t>hsa_circ_0035431</t>
-  </si>
-  <si>
-    <t>hsa_circ_0035445</t>
-  </si>
-  <si>
-    <t>hsa_circ_0041150</t>
-  </si>
-  <si>
-    <t>hsa_circ_0043278</t>
-  </si>
-  <si>
-    <t>hsa_circ_0048232</t>
-  </si>
-  <si>
-    <t>hsa_circ_0049657</t>
-  </si>
-  <si>
-    <t>hsa_circ_0050547</t>
-  </si>
-  <si>
-    <t>hsa_circ_0054345</t>
-  </si>
-  <si>
-    <t>hsa_circ_0054971</t>
-  </si>
-  <si>
-    <t>hsa_circ_0057104</t>
-  </si>
-  <si>
-    <t>hsa_circ_0058058</t>
-  </si>
-  <si>
-    <t>hsa_circ_0058246</t>
-  </si>
-  <si>
-    <t>hsa_circ_0058766</t>
-  </si>
-  <si>
-    <t>hsa_circ_0060108</t>
-  </si>
-  <si>
-    <t>hsa_circ_006054</t>
-  </si>
-  <si>
-    <t>hsa_circ_0061265</t>
-  </si>
-  <si>
-    <t>hsa_circ_0061274</t>
-  </si>
-  <si>
-    <t>hsa_circ_0061276</t>
-  </si>
-  <si>
-    <t>hsa_circ_0061893</t>
-  </si>
-  <si>
-    <t>hsa_circ_0063561</t>
-  </si>
-  <si>
-    <t>hsa_circ_0063809</t>
-  </si>
-  <si>
-    <t>hsa_circ_0067531</t>
-  </si>
-  <si>
-    <t>hsa_circ_0068033</t>
-  </si>
-  <si>
-    <t>hsa_circ_0069131</t>
-  </si>
-  <si>
-    <t>hsa_circ_0069399</t>
-  </si>
-  <si>
-    <t>hsa_circ_0070963</t>
-  </si>
-  <si>
-    <t>hsa_circ_0072765</t>
-  </si>
-  <si>
-    <t>hsa_circ_0074362</t>
-  </si>
-  <si>
-    <t>hsa_circ_0074806</t>
-  </si>
-  <si>
-    <t>hsa_circ_0074930</t>
-  </si>
-  <si>
-    <t>hsa_circ_0075001</t>
-  </si>
-  <si>
-    <t>hsa_circ_0076304</t>
-  </si>
-  <si>
-    <t>hsa_circ_0076305</t>
-  </si>
-  <si>
-    <t>hsa_circ_0078297</t>
-  </si>
-  <si>
-    <t>hsa_circ_0081146</t>
-  </si>
-  <si>
-    <t>hsa_circ_0084021</t>
-  </si>
-  <si>
-    <t>hsa_circ_0084353</t>
-  </si>
-  <si>
-    <t>hsa_circ_0084606</t>
-  </si>
-  <si>
-    <t>hsa_circ_0084720</t>
-  </si>
-  <si>
-    <t>hsa_circ_0085495</t>
-  </si>
-  <si>
-    <t>hsa_circ_0085553</t>
-  </si>
-  <si>
-    <t>hsa_circ_0085616</t>
-  </si>
-  <si>
-    <t>hsa_circ_0086241</t>
-  </si>
-  <si>
-    <t>hsa_circ_0087432</t>
-  </si>
-  <si>
-    <t>hsa_circ_0087862</t>
-  </si>
-  <si>
-    <t>hsa_circ_0089231</t>
-  </si>
-  <si>
-    <t>hsa_circ_0089548</t>
-  </si>
-  <si>
-    <t>hsa_circ_0091017</t>
-  </si>
-  <si>
-    <t>hsa_circ_0091742</t>
-  </si>
-  <si>
-    <t>hsa_circ_0091822</t>
-  </si>
-  <si>
-    <t>hsa_circ_0092024</t>
-  </si>
-  <si>
-    <t>hsa_circ_0092276</t>
-  </si>
-  <si>
-    <t>hsa_circ_0092341</t>
-  </si>
-  <si>
-    <t>hsa_circ_0093859</t>
-  </si>
-  <si>
-    <t>hsa_circ_0108942</t>
-  </si>
-  <si>
-    <t>hsa_circ_0109046</t>
-  </si>
-  <si>
-    <t>hsa_circ_100219</t>
-  </si>
-  <si>
-    <t>hsa_circ_0001955</t>
-  </si>
-  <si>
-    <t>hsa_circRNA 102049</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_000543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsa_circRNA_000543 </t>
-  </si>
-  <si>
-    <t>hsa_circRNA_000792</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_001066</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_001379</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_001653</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_001959</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_004666</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_004674</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_006054</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_006411</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_007255</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_089763</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100219</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100241</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100258</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100269</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100284</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100338</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100367</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100395</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100433</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100571</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100777/hsa_circ_0021553</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100855</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100876</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_100984</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101113</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101308</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101356</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101419</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101717</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_101877</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102002</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102032</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102049</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102051</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102347</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102485</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102619</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102678</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_102913</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103076</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103096</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103110</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103307</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103309</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103390</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103454</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103781</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_103999</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104075</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104084</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104135</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104169</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104268</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104270</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104348</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104423</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104433</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104565</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104566</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104595</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104689</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104692</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104821</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104892</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104912</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104916</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_104983</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_105038</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_400031</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_400033</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_400064</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_400066</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_400071</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_401977</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_404833</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_405198</t>
-  </si>
-  <si>
-    <t>hsa_circRNA_405679</t>
-  </si>
-  <si>
-    <t>hsa-circ-0016347</t>
-  </si>
-  <si>
-    <t>hsa-circRNA7690-15</t>
-  </si>
-  <si>
-    <t>LARP4</t>
-  </si>
-  <si>
-    <t>MCF7_circ_000595</t>
-  </si>
-  <si>
-    <t>circRNA4406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circRNA4046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3239,18 +1987,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3265,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3278,7 +2020,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3642,7 +2383,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1007</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +2391,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>999</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +2399,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1000</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -3666,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1001</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -3674,7 +2415,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1002</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -3690,7 +2431,7 @@
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1003</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +2439,7 @@
         <v>580</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1008</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -3730,7 +2471,7 @@
         <v>579</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1009</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -5642,7 +4383,7 @@
         <v>122</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1004</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -5658,7 +4399,7 @@
         <v>124</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1005</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -5666,7 +4407,7 @@
         <v>124</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1006</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
@@ -7461,2812 +6202,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B480"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>586</v>
-      </c>
-      <c r="B6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>998</v>
-      </c>
-      <c r="B8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>997</v>
-      </c>
-      <c r="B9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B10" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>591</v>
-      </c>
-      <c r="B11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>592</v>
-      </c>
-      <c r="B24" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>594</v>
-      </c>
-      <c r="B29" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="B35" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>263</v>
-      </c>
-      <c r="B37" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>596</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>597</v>
-      </c>
-      <c r="B45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B47" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>598</v>
-      </c>
-      <c r="B51" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>599</v>
-      </c>
-      <c r="B52" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="B53" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>601</v>
-      </c>
-      <c r="B54" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B56" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>603</v>
-      </c>
-      <c r="B62" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B64" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>605</v>
-      </c>
-      <c r="B65" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>293</v>
-      </c>
-      <c r="B68" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B74" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>607</v>
-      </c>
-      <c r="B76" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>608</v>
-      </c>
-      <c r="B79" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>609</v>
-      </c>
-      <c r="B80" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>610</v>
-      </c>
-      <c r="B81" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>611</v>
-      </c>
-      <c r="B82" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B84" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>613</v>
-      </c>
-      <c r="B87" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>265</v>
-      </c>
-      <c r="B88" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>614</v>
-      </c>
-      <c r="B89" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B90" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>264</v>
-      </c>
-      <c r="B91" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>307</v>
-      </c>
-      <c r="B93" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>616</v>
-      </c>
-      <c r="B95" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="B96" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B97" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="B99" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>269</v>
-      </c>
-      <c r="B100" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="B104" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>621</v>
-      </c>
-      <c r="B107" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>622</v>
-      </c>
-      <c r="B108" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B109" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>88</v>
-      </c>
-      <c r="B110" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>213</v>
-      </c>
-      <c r="B113" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>623</v>
-      </c>
-      <c r="B114" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B116" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="B117" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>69</v>
-      </c>
-      <c r="B118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="B119" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>627</v>
-      </c>
-      <c r="B120" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>183</v>
-      </c>
-      <c r="B121" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>177</v>
-      </c>
-      <c r="B122" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>628</v>
-      </c>
-      <c r="B124" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>629</v>
-      </c>
-      <c r="B125" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>630</v>
-      </c>
-      <c r="B126" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>631</v>
-      </c>
-      <c r="B129" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>632</v>
-      </c>
-      <c r="B130" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" t="s">
-        <v>996</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cirRNA/cirRNAInfo/static/table/circRNA-miRNA.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/circRNA-miRNA.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9527C-D906-4E00-974A-6A87E65BA7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="circRNA-miRNA" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'circRNA-miRNA'!$B$1:$B$478</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$478</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="592">
   <si>
     <t>hsa_circ_0001946</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1453,6 +1452,12 @@
     <t xml:space="preserve">hsa-miR-615-5p </t>
   </si>
   <si>
+    <t>hsa-miR-324-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-640</t>
+  </si>
+  <si>
     <t>hsa-miR-885-3p</t>
   </si>
   <si>
@@ -1519,12 +1524,24 @@
     <t>hsa-miR-181b-2-3p</t>
   </si>
   <si>
+    <t xml:space="preserve">hsa-miR-4659a/b  </t>
+  </si>
+  <si>
+    <t>hsa-miR-5571-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-3184-3p</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsa-miR-103a-3p </t>
   </si>
   <si>
     <t xml:space="preserve">hsa-miR-107 </t>
   </si>
   <si>
+    <t>hsa-miR-22</t>
+  </si>
+  <si>
     <t>hsa-miR-136*</t>
   </si>
   <si>
@@ -1534,6 +1551,9 @@
     <t>hsa-miR-149*</t>
   </si>
   <si>
+    <t>hsa-miR-433</t>
+  </si>
+  <si>
     <t>hsa-miR-762</t>
   </si>
   <si>
@@ -1822,6 +1842,12 @@
     <t>hsa-miR-630</t>
   </si>
   <si>
+    <t xml:space="preserve">hsa-miR-33b </t>
+  </si>
+  <si>
+    <t>hsa-miR-185</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsa-miR-195-5p  </t>
   </si>
   <si>
@@ -1901,56 +1927,13 @@
   </si>
   <si>
     <t>hsa-miR-93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-5571-5p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-3184-3p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-33b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-29a-3p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-653-5p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-324-5p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-640</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-4659a/b</t>
-  </si>
-  <si>
-    <t>hsa-miR-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsa-miR-433</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2113,23 +2096,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2165,23 +2131,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2357,20 +2306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>314</v>
       </c>
@@ -2378,135 +2327,135 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
@@ -2514,15 +2463,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>241</v>
       </c>
@@ -2530,7 +2479,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>282</v>
       </c>
@@ -2538,7 +2487,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>281</v>
       </c>
@@ -2546,7 +2495,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
@@ -2554,7 +2503,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>247</v>
       </c>
@@ -2562,7 +2511,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>287</v>
       </c>
@@ -2570,7 +2519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>286</v>
       </c>
@@ -2578,7 +2527,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>285</v>
       </c>
@@ -2586,7 +2535,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
@@ -2594,7 +2543,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
@@ -2602,47 +2551,47 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -2650,31 +2599,31 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -2682,103 +2631,103 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
@@ -2786,7 +2735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2794,7 +2743,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2802,7 +2751,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -2810,7 +2759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -2818,7 +2767,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -2826,23 +2775,23 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>95</v>
       </c>
@@ -2850,31 +2799,31 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>305</v>
       </c>
@@ -2882,7 +2831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>305</v>
       </c>
@@ -2890,7 +2839,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>297</v>
       </c>
@@ -2898,7 +2847,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>297</v>
       </c>
@@ -2906,7 +2855,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>297</v>
       </c>
@@ -2914,7 +2863,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>297</v>
       </c>
@@ -2922,7 +2871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>297</v>
       </c>
@@ -2930,7 +2879,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>297</v>
       </c>
@@ -2938,7 +2887,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>297</v>
       </c>
@@ -2946,39 +2895,39 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -2986,23 +2935,23 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>126</v>
       </c>
@@ -3010,7 +2959,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>125</v>
       </c>
@@ -3018,47 +2967,47 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>262</v>
       </c>
@@ -3066,7 +3015,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
@@ -3074,7 +3023,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>262</v>
       </c>
@@ -3082,111 +3031,111 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>294</v>
       </c>
@@ -3194,7 +3143,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>236</v>
       </c>
@@ -3202,7 +3151,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>235</v>
       </c>
@@ -3210,7 +3159,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>234</v>
       </c>
@@ -3218,7 +3167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>234</v>
       </c>
@@ -3226,7 +3175,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>234</v>
       </c>
@@ -3234,7 +3183,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>234</v>
       </c>
@@ -3242,7 +3191,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>234</v>
       </c>
@@ -3250,7 +3199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>234</v>
       </c>
@@ -3258,7 +3207,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>260</v>
       </c>
@@ -3266,7 +3215,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>259</v>
       </c>
@@ -3274,7 +3223,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>258</v>
       </c>
@@ -3282,7 +3231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>258</v>
       </c>
@@ -3290,7 +3239,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>258</v>
       </c>
@@ -3298,7 +3247,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>257</v>
       </c>
@@ -3306,7 +3255,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>256</v>
       </c>
@@ -3314,7 +3263,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>255</v>
       </c>
@@ -3322,7 +3271,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>255</v>
       </c>
@@ -3330,7 +3279,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>255</v>
       </c>
@@ -3338,7 +3287,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -3346,7 +3295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -3354,7 +3303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -3362,7 +3311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -3370,7 +3319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -3378,7 +3327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>2</v>
       </c>
@@ -3418,7 +3367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
@@ -3426,7 +3375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
@@ -3434,7 +3383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>2</v>
       </c>
@@ -3442,7 +3391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>2</v>
       </c>
@@ -3450,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>2</v>
       </c>
@@ -3466,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3474,7 +3423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>2</v>
       </c>
@@ -3514,15 +3463,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>306</v>
       </c>
@@ -3530,7 +3479,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>245</v>
       </c>
@@ -3538,7 +3487,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>199</v>
       </c>
@@ -3546,7 +3495,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>199</v>
       </c>
@@ -3554,7 +3503,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>199</v>
       </c>
@@ -3562,7 +3511,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>199</v>
       </c>
@@ -3570,7 +3519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>199</v>
       </c>
@@ -3578,7 +3527,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>263</v>
       </c>
@@ -3586,7 +3535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>263</v>
       </c>
@@ -3594,7 +3543,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>288</v>
       </c>
@@ -3602,15 +3551,15 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>148</v>
       </c>
@@ -3618,7 +3567,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>148</v>
       </c>
@@ -3626,7 +3575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>148</v>
       </c>
@@ -3634,7 +3583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>148</v>
       </c>
@@ -3642,7 +3591,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>148</v>
       </c>
@@ -3650,15 +3599,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>239</v>
       </c>
@@ -3666,7 +3615,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>238</v>
       </c>
@@ -3674,7 +3623,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>237</v>
       </c>
@@ -3682,7 +3631,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>237</v>
       </c>
@@ -3690,7 +3639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>237</v>
       </c>
@@ -3698,7 +3647,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>140</v>
       </c>
@@ -3706,7 +3655,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>138</v>
       </c>
@@ -3714,7 +3663,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>134</v>
       </c>
@@ -3722,7 +3671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>134</v>
       </c>
@@ -3730,7 +3679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>134</v>
       </c>
@@ -3738,7 +3687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>205</v>
       </c>
@@ -3746,7 +3695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>205</v>
       </c>
@@ -3754,7 +3703,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>205</v>
       </c>
@@ -3762,7 +3711,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>205</v>
       </c>
@@ -3770,7 +3719,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>205</v>
       </c>
@@ -3778,15 +3727,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>252</v>
       </c>
@@ -3794,7 +3743,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>251</v>
       </c>
@@ -3802,7 +3751,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>250</v>
       </c>
@@ -3810,7 +3759,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>250</v>
       </c>
@@ -3818,7 +3767,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>250</v>
       </c>
@@ -3826,7 +3775,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>308</v>
       </c>
@@ -3834,15 +3783,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>308</v>
       </c>
@@ -3850,7 +3799,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>308</v>
       </c>
@@ -3858,7 +3807,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>308</v>
       </c>
@@ -3866,7 +3815,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3874,7 +3823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
@@ -3882,7 +3831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -3890,7 +3839,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -3898,7 +3847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -3906,47 +3855,47 @@
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>154</v>
       </c>
@@ -3954,7 +3903,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>154</v>
       </c>
@@ -3962,7 +3911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>154</v>
       </c>
@@ -3970,7 +3919,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>154</v>
       </c>
@@ -3978,7 +3927,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>154</v>
       </c>
@@ -3986,23 +3935,23 @@
         <v>153</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>55</v>
       </c>
@@ -4010,7 +3959,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>54</v>
       </c>
@@ -4018,15 +3967,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>63</v>
       </c>
@@ -4034,31 +3983,31 @@
         <v>319</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>309</v>
       </c>
@@ -4066,7 +4015,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>295</v>
       </c>
@@ -4074,15 +4023,15 @@
         <v>322</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>50</v>
       </c>
@@ -4090,15 +4039,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>49</v>
       </c>
@@ -4106,15 +4055,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>290</v>
       </c>
@@ -4122,7 +4071,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>289</v>
       </c>
@@ -4130,63 +4079,63 @@
         <v>328</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>77</v>
       </c>
@@ -4194,31 +4143,31 @@
         <v>201</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>118</v>
       </c>
@@ -4226,7 +4175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>116</v>
       </c>
@@ -4234,7 +4183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>112</v>
       </c>
@@ -4242,7 +4191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>112</v>
       </c>
@@ -4250,7 +4199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>112</v>
       </c>
@@ -4258,23 +4207,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>67</v>
       </c>
@@ -4282,23 +4231,23 @@
         <v>318</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>261</v>
       </c>
@@ -4306,7 +4255,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>254</v>
       </c>
@@ -4314,7 +4263,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
@@ -4322,7 +4271,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>253</v>
       </c>
@@ -4330,7 +4279,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>253</v>
       </c>
@@ -4338,7 +4287,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>253</v>
       </c>
@@ -4346,7 +4295,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>270</v>
       </c>
@@ -4354,7 +4303,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>283</v>
       </c>
@@ -4362,15 +4311,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>122</v>
       </c>
@@ -4378,55 +4327,55 @@
         <v>171</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>293</v>
       </c>
@@ -4434,7 +4383,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>194</v>
       </c>
@@ -4442,7 +4391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>194</v>
       </c>
@@ -4450,7 +4399,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>194</v>
       </c>
@@ -4458,7 +4407,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>194</v>
       </c>
@@ -4466,7 +4415,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>194</v>
       </c>
@@ -4474,31 +4423,31 @@
         <v>193</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>84</v>
       </c>
@@ -4506,15 +4455,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>84</v>
       </c>
@@ -4522,23 +4471,23 @@
         <v>426</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>279</v>
       </c>
@@ -4546,15 +4495,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>246</v>
       </c>
@@ -4562,31 +4511,31 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>233</v>
       </c>
@@ -4594,7 +4543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>231</v>
       </c>
@@ -4602,7 +4551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>228</v>
       </c>
@@ -4610,7 +4559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>228</v>
       </c>
@@ -4618,7 +4567,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>228</v>
       </c>
@@ -4626,39 +4575,39 @@
         <v>227</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>60</v>
       </c>
@@ -4666,7 +4615,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>240</v>
       </c>
@@ -4674,7 +4623,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>292</v>
       </c>
@@ -4682,7 +4631,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>284</v>
       </c>
@@ -4690,7 +4639,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>225</v>
       </c>
@@ -4698,7 +4647,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>225</v>
       </c>
@@ -4706,7 +4655,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>221</v>
       </c>
@@ -4714,7 +4663,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>221</v>
       </c>
@@ -4722,7 +4671,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>221</v>
       </c>
@@ -4730,7 +4679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>243</v>
       </c>
@@ -4738,39 +4687,39 @@
         <v>242</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>64</v>
       </c>
@@ -4778,71 +4727,71 @@
         <v>149</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>52</v>
       </c>
@@ -4850,7 +4799,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>53</v>
       </c>
@@ -4858,15 +4807,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>265</v>
       </c>
@@ -4874,7 +4823,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>265</v>
       </c>
@@ -4882,7 +4831,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>265</v>
       </c>
@@ -4890,7 +4839,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>265</v>
       </c>
@@ -4898,7 +4847,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>265</v>
       </c>
@@ -4906,7 +4855,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>265</v>
       </c>
@@ -4914,7 +4863,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>265</v>
       </c>
@@ -4922,7 +4871,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>265</v>
       </c>
@@ -4930,7 +4879,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>265</v>
       </c>
@@ -4938,7 +4887,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>265</v>
       </c>
@@ -4946,15 +4895,15 @@
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>271</v>
       </c>
@@ -4962,7 +4911,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>264</v>
       </c>
@@ -4970,7 +4919,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>264</v>
       </c>
@@ -4978,7 +4927,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>264</v>
       </c>
@@ -4986,7 +4935,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>264</v>
       </c>
@@ -4994,7 +4943,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>264</v>
       </c>
@@ -5002,7 +4951,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>264</v>
       </c>
@@ -5010,7 +4959,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>264</v>
       </c>
@@ -5018,7 +4967,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>264</v>
       </c>
@@ -5026,7 +4975,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>264</v>
       </c>
@@ -5034,7 +4983,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>264</v>
       </c>
@@ -5042,7 +4991,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>264</v>
       </c>
@@ -5050,7 +4999,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>264</v>
       </c>
@@ -5058,7 +5007,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>264</v>
       </c>
@@ -5066,7 +5015,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>264</v>
       </c>
@@ -5074,7 +5023,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>264</v>
       </c>
@@ -5082,7 +5031,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>264</v>
       </c>
@@ -5090,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>264</v>
       </c>
@@ -5098,7 +5047,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>264</v>
       </c>
@@ -5106,7 +5055,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>264</v>
       </c>
@@ -5114,7 +5063,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>264</v>
       </c>
@@ -5122,7 +5071,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>264</v>
       </c>
@@ -5130,7 +5079,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>264</v>
       </c>
@@ -5138,7 +5087,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>264</v>
       </c>
@@ -5146,7 +5095,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>264</v>
       </c>
@@ -5154,79 +5103,79 @@
         <v>383</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>272</v>
       </c>
@@ -5234,7 +5183,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>273</v>
       </c>
@@ -5242,7 +5191,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>28</v>
       </c>
@@ -5250,7 +5199,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>274</v>
       </c>
@@ -5258,7 +5207,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>269</v>
       </c>
@@ -5266,7 +5215,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>269</v>
       </c>
@@ -5274,7 +5223,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>268</v>
       </c>
@@ -5282,7 +5231,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>267</v>
       </c>
@@ -5290,7 +5239,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>266</v>
       </c>
@@ -5298,7 +5247,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>266</v>
       </c>
@@ -5306,7 +5255,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>266</v>
       </c>
@@ -5314,7 +5263,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>266</v>
       </c>
@@ -5322,7 +5271,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>266</v>
       </c>
@@ -5330,7 +5279,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>266</v>
       </c>
@@ -5338,7 +5287,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>266</v>
       </c>
@@ -5346,7 +5295,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>266</v>
       </c>
@@ -5354,7 +5303,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>266</v>
       </c>
@@ -5362,7 +5311,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>166</v>
       </c>
@@ -5370,7 +5319,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>166</v>
       </c>
@@ -5378,7 +5327,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>166</v>
       </c>
@@ -5386,7 +5335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>166</v>
       </c>
@@ -5394,7 +5343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>166</v>
       </c>
@@ -5402,7 +5351,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>211</v>
       </c>
@@ -5410,7 +5359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>209</v>
       </c>
@@ -5418,7 +5367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>207</v>
       </c>
@@ -5426,7 +5375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>207</v>
       </c>
@@ -5434,7 +5383,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>207</v>
       </c>
@@ -5442,7 +5391,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>275</v>
       </c>
@@ -5450,7 +5399,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>108</v>
       </c>
@@ -5458,47 +5407,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>106</v>
       </c>
@@ -5506,23 +5455,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>106</v>
       </c>
@@ -5530,7 +5479,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>291</v>
       </c>
@@ -5538,167 +5487,167 @@
         <v>326</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>172</v>
       </c>
@@ -5706,7 +5655,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>172</v>
       </c>
@@ -5714,7 +5663,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>172</v>
       </c>
@@ -5722,7 +5671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>172</v>
       </c>
@@ -5730,7 +5679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>172</v>
       </c>
@@ -5738,7 +5687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>219</v>
       </c>
@@ -5746,7 +5695,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>217</v>
       </c>
@@ -5754,7 +5703,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>213</v>
       </c>
@@ -5762,7 +5711,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>213</v>
       </c>
@@ -5770,7 +5719,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>213</v>
       </c>
@@ -5778,23 +5727,23 @@
         <v>212</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>72</v>
       </c>
@@ -5802,7 +5751,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>73</v>
       </c>
@@ -5810,15 +5759,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>142</v>
       </c>
@@ -5826,7 +5775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>142</v>
       </c>
@@ -5834,7 +5783,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>142</v>
       </c>
@@ -5842,7 +5791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>142</v>
       </c>
@@ -5850,7 +5799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>142</v>
       </c>
@@ -5858,7 +5807,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
         <v>276</v>
       </c>
@@ -5866,7 +5815,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>277</v>
       </c>
@@ -5874,39 +5823,39 @@
         <v>341</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>69</v>
       </c>
@@ -5914,7 +5863,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>278</v>
       </c>
@@ -5922,15 +5871,15 @@
         <v>341</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>183</v>
       </c>
@@ -5938,7 +5887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>183</v>
       </c>
@@ -5946,7 +5895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>183</v>
       </c>
@@ -5954,7 +5903,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>183</v>
       </c>
@@ -5962,7 +5911,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>183</v>
       </c>
@@ -5970,7 +5919,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>177</v>
       </c>
@@ -5978,7 +5927,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>177</v>
       </c>
@@ -5986,7 +5935,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>177</v>
       </c>
@@ -5994,7 +5943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>177</v>
       </c>
@@ -6002,7 +5951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>177</v>
       </c>
@@ -6010,7 +5959,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>249</v>
       </c>
@@ -6018,7 +5967,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>249</v>
       </c>
@@ -6026,7 +5975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>248</v>
       </c>
@@ -6034,7 +5983,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>248</v>
       </c>
@@ -6042,7 +5991,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>248</v>
       </c>
@@ -6050,7 +5999,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>311</v>
       </c>
@@ -6058,7 +6007,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>310</v>
       </c>
@@ -6066,31 +6015,31 @@
         <v>315</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>131</v>
       </c>
@@ -6098,7 +6047,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>130</v>
       </c>
@@ -6106,7 +6055,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>129</v>
       </c>
@@ -6114,7 +6063,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>129</v>
       </c>
@@ -6122,7 +6071,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>129</v>
       </c>
@@ -6130,7 +6079,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>128</v>
       </c>
@@ -6138,7 +6087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>128</v>
       </c>
@@ -6146,7 +6095,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>127</v>
       </c>
@@ -6154,7 +6103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>127</v>
       </c>
@@ -6162,7 +6111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>127</v>
       </c>
@@ -6170,15 +6119,15 @@
         <v>431</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>119</v>
       </c>
@@ -6186,7 +6135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>312</v>
       </c>
